--- a/val_df_dror.xlsx
+++ b/val_df_dror.xlsx
@@ -46,7 +46,7 @@
     <t>OCC(C@NCCCCCC@NC(C@NC(C@N)CCCN=[C+](=N)=N)CCCN=[C+](=N)=N)OC(NC=Ncc(N)ncnc)CO0000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>C=CC(cccc(C(F)(F)F)cc)Ncnc(Cl)nc/c=C(/)N/N=00000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>C=CC(cccc(C(F)(F)F)cc)Ncnc(l)nc/c=C(/)N/N=000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ccc(C@N)cc(CN(C@C=C(CC)C(C@C)=C(C)N)C)c000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -55,7 +55,7 @@
     <t>ONC@C(cccc(-ccccc([C+](=N)=NO)c)cc)NC@OC(C)(C)C0000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>ccc(/C=N/C(CC@OC(C)(C)C)/C=N/N=C(/C)NC=CC(C)=C(C)S)cccCl0000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>ccc(/C=N/C(CC@OC(C)(C)C)/C=N/N=C(/C)NC=CC(C)=C(C)S)cccl00000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>OC/C(=C(\)ccccc(c[C-]@=O)OCO)ccccccC000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -64,13 +64,13 @@
     <t>CC([C-]@=O)NC@CC(C=O)CCCCC0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>ccc(OC)c(S@@Ncccc(ccNC)ON=CC)ccBr000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>ccc(OC)c(S@@Ncccc(ccNC)ON=CC)cc*0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ccc(C@Nccc(C@C)cccOCC)cc(C@OC)cOCC[N+]CC[N+]CC00000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>C=NNC(Ncccccc)=NC(NCcccc(Cl)cc)=NC=CC#N000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>C=NNC(Ncccccc)=NC(NCcccc(l)cc)=NC=CC#N0000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>Occccc(c)-cc(c(C)cc(cC)C@NC=C)N00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -94,25 +94,25 @@
     <t>Occccccc(cccN@=O)OC@C=CC000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>OCCOCCSCCCCOHC[N+](C/C=C(\)NccncncN)C00000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>OccccOHccC@cc(c(N)cccN)C=O0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>OCC(cccccc)NC@C=CC(cnc(NccccccCl)nccC)=CN0000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>OCCOCCSCCCC&amp;C[N+](C/C=C(\)NccncncN)C000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>Occcc&amp;ccC@cc(c(N)cccN)C=O00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>OCC(cccccc)NC@C=CC(cnc(Nccccccl)nccC)=CN00000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>C=NN(C)C(C/C=N/NC@ccc(F)cc(c)NCcccc(F)cc)=N00000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>C=Ncnc(N)nc(-ccc(Br)cccOC=C)cN000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>C=Ncnc(N)nc(-ccc(*)cccOC=C)cN0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>OCC(OC)C(OC)OCCCccc(ccc-n[c+](=N)nC=O)N=C(NC)N00000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>OCCOHC(CSC)[N+]C/C=C(\)NccncncN00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>OCC&amp;C(CSC)[N+]C/C=C(\)NccncncN000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>cnccn(c)C(NC(C)(C)C)=C(cccc(C=C(C)ON=CC)cc)N0000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -133,7 +133,7 @@
     <t>C=NC=C(C@NCC=NNN=N)C=C(S)CCCC0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>OCC@NCCCOCOCCOHCOHCO0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>OCC@NCCCOCOCC&amp;C&amp;CO000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>N(C@C)C=NN=C(S@@N)S00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -145,19 +145,19 @@
     <t>ccc(cccC@NC(NC)=N)N/C(NC)=N\00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>NC@Ncc(Br)c(Br)c(Br)c(Br)c0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>C=C(CCN/N=c/c(Br)c(Br)c(Br)c(Br)/c=N/)N=NNCCCC[N+]0000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>NC@Ncc(*)c(*)c(*)c(*)c00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>C=C(CCN/N=c/c(*)c(*)c(*)c(*)/c=N/)N=NNCCCC[N+]00000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>cc(C@OC)cc(N)ccC=C(C)ON=CC0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>/C=N/N(C)cnc(Cl)nc(NC(cccc(C(F)(F)F)cc)C)c000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>Occccc(cO)C@ccOHcccOHcC=O00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>/C=N/N(C)cnc(l)nc(NC(cccc(C(F)(F)F)cc)C)c0000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>Occccc(cO)C@cc&amp;ccc&amp;cC=O0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>OCC(OC)OC(CCccc(ccc-n[c+](=N)nC=O)N=C(NC)N)COC00000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -175,16 +175,16 @@
     <t>OCC(CScnccnc)C[N+](C/C=C(\)NccncncN)C00000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>OC([C-]@=O)CCOHCOH[C-]@=O00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>OC([C-]@=O)CC&amp;C&amp;[C-]@=O0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>cc(C)nc(Scc(F)c(F)c(S@@N)c(F)cF)ncC0000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>OCCOC(C=NNccncn(C)cN)COHCO0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>C=CN(C)N=CCSCC=NN(C)C(C)=Ccc(Cl)ccccN(C)/C([C-]@=O)=C\CCCOccc(ccccccc)SC000000000000000000000000000000000000000000000000</t>
+    <t>OCCOC(C=NNccncn(C)cN)C&amp;CO00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>C=CN(C)N=CCSCC=NN(C)C(C)=Ccc(l)ccccN(C)/C([C-]@=O)=C\CCCOccc(ccccccc)SC0000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ccc(S@@NC@CCCC)cccN00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -196,7 +196,7 @@
     <t>C=C(N@=O)SC(NC@NCcccc(OC)cc)=N000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>cccc(CC)c(-cc(Cl)cc(C[N+])ccCl)c0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>cccc(CC)c(-cc(l)cc(C[N+])ccl)c000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>cccc(S@@NCcccc(C=C(C)ON=CC)cc)cc0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -220,13 +220,13 @@
     <t>cccc/c(c)=C(/N)N/C=N0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>cccc(ccCl)N(Cccc(C)c(F)c(C)c)C(NCC[N+]CC)=N00000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>ccc(-cc(C(OC(C)(C)C)[C-]@=O)c(C)ncccccc)cccCl000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>cccc(CCccc(CCNC@CNC@C(NC@CC(Ccccc(Cl)cc)[N+]CCCN(C)C@C)CCcccccc)cccCl)cc000000000000000000000000000000000000000000000000</t>
+    <t>cccc(ccl)N(Cccc(C)c(F)c(C)c)C(NCC[N+]CC)=N000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>ccc(-cc(C(OC(C)(C)C)[C-]@=O)c(C)ncccccc)cccl0000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>cccc(CCccc(CCNC@CNC@C(NC@CC(Ccccc(l)cc)[N+]CCCN(C)C@C)CCcccccc)cccl)cc00000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>NC@C=C(/N=C\C)CCSC000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -238,10 +238,10 @@
     <t>ccc(C@N)cc(c)NC(cccc(CCCCC[N+])ccF)=N00000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>OCC(cccc(F)c(Cl)c)NC@C=CC(C=C(ccccc(Cl)c)C=NN)=CN00000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>Occcnccc(Cl)ccc000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>OCC(cccc(F)c(l)c)NC@C=CC(C=C(ccccc(l)c)C=NN)=CN0000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>Occcnccc(l)ccc0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>C=NN(C)C=Cccccc(c)/C(ccc(S@@CC)cccOC)=C(/)N(C)C=O00000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -256,19 +256,19 @@
     <t>ccc(N)cccC@NNC=O00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>OccccccC@ccOHccc(N@=O)cO000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>OccccccC@cc&amp;ccc(N@=O)cO0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>cccc(C=CC(=NN)CCN(C@CC)C)cc000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>ccc(C=NC(CC@NCC)C=NN=C(C)Ncccc(OC)cc)cccCl000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>ccc(C=NC(CC@NCC)C=NN=C(C)Ncccc(OC)cc)cccl0000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>Occcc(S@@N(CC)CC)ccNC@C=C(CC)C(C@N)=C(C)N0000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>ccc(C[N+])cc(Cl)cOC(C)C0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>ccc(C[N+])cc(l)cOC(C)C00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>Occcc(CC([C-]@=O)NC@C(NC@C(S)Ccccccc)Ccccccc)cc0000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -280,19 +280,19 @@
     <t>C=CC[N+](CccccccC@NC(cccc(OC)cc)CCC)Cccccc(c[C-]@=O)OCO00000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>/C(=C(/)C[N+]CCNS@@ccccccnccc)cccc(Br)cc00000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>/C(=C(/)C[N+]CCNS@@ccccccnccc)cccc(*)cc000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>OccccccCNcncnc(NCccccccO)c0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>OCOC(COP@@OP@@OCCOC(NC=Ncc(N)ncnc)COHCO)COHCO000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>OCOC(COP@@OP@@OCCOC(NC=Ncc(N)ncnc)C&amp;CO)C&amp;CO00000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>OCC(NC=C(/N=C\)C@n[c+](=N)n)OC(COP@@OP@@NP@@=O)CO00000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>OCCOC(N/C=C(/)cc(N)ncnc)COHCO0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>OCCOC(N/C=C(/)cc(N)ncnc)C&amp;CO00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>OCC(C@NCCCCCC@NC(C@NCCCCCC@NC(C@NC(C@N)CCCN=[C+](=N)=N)CCCN=[C+](=N)=N)C)OC(NC=Ncc(N)ncnc)CO0000000000000000000000000000</t>
@@ -307,7 +307,7 @@
     <t>cccc(COC@NCP@@NC(C@NCCC[N+])CC(C)C)cc00000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>C=CC(ccccnc(NCC[N+](CC[N+](C)C)CC)nc(NCccccc(Cl)c)cc)=CN(C)C=O0000000000000000000000000000000000000000000000000000000000</t>
+    <t>C=CC(ccccnc(NCC[N+](CC[N+](C)C)CC)nc(NCccccc(l)c)cc)=CN(C)C=O00000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>C=C(ccccc(c)OCCO)C=C(S)C@C=C(NCCOCC)O00000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -322,13 +322,13 @@
     <t>ccc(S@@NC)cc(NC@C=C(CC)C(C@C)=C(C)N)cC0000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>cc(Cl)ccc(cCl)C(CC[N+])=C(C)N0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>cccc(-cc(Cl)cc(C[N+])ccCl)cc00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>cc(Cl)cc(NCC[N+](C)CC)ccN(Cccc(C)c(F)c(C)c)C(NCC(C)C[N+]C)=N000000000000000000000000000000000000000000000000000000000000</t>
+    <t>cc(l)ccc(cl)C(CC[N+])=C(C)N000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>cccc(-cc(l)cc(C[N+])ccl)cc0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>cc(l)cc(NCC[N+](C)CC)ccN(Cccc(C)c(F)c(C)c)C(NCC(C)C[N+]C)=N0000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>/C=C(\C)C@Ncc(NCCC[N+]CC)nccc0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -364,7 +364,7 @@
     <t>C=CCC(C@OC)CCCCC(OC@CC)C(C)CCOCC(C)CCC=O00000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>Occccc(cO)OC@cccOHcOHc(c-)OC=O000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>Occccc(cO)OC@ccc&amp;c&amp;c(c-)OC=O00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ccc(F)c(F)c(OCC=C(cccc(CNS@@C(C)CC)cc)C(C)=NO)c0000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -379,13 +379,13 @@
     <t>OCCS@@cc(F)c(F)c(S@@N)c(F)cNCccccccCCC0000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>C=C(ccc(Cl)cccN=C(NCC[N+]CC)NCccc(C)c(F)c(C)c)CC[N+]C0000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>cccc(/C=N/CC=NN=C(C)Ncccc(Cl)cc)cc00000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>C=C(C@Ncccc(C@NC[C-]@=O)cc)NC(Br)=CBr00000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>C=C(ccc(l)cccN=C(NCC[N+]CC)NCccc(C)c(F)c(C)c)CC[N+]C00000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>cccc(/C=N/CC=NN=C(C)Ncccc(l)cc)cc000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>C=C(C@Ncccc(C@NC[C-]@=O)cc)NC(*)=C*0000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>cccc(COC@NCP@@NC(C@NCCCC[N+])CC(C)C)cc0000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -394,7 +394,7 @@
     <t>C=NN(C)C=Cccccc(c)C(ccccc(NS@@C)c)=CN(C)C=O00000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>OCC(OC)COHOC(C(C)/C=C(\)C(OC)C(OC)CCCCC(cccccc)OC@CC)CC00000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>OCC(OC)C&amp;OC(C(C)/C=C(\)C(OC)C(OC)CCCCC(cccccc)OC@CC)CC000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ccccc(c)N=C(CCNC@ccccc(OC(C)C)cC=O)N(cccc(OC)cc)C=O000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -403,10 +403,10 @@
     <t>C=NC@cccc(CC(C@ccccc(I)c)C[N+]C)ccN0000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>OCCOC(C=NNC=CN=CNC=O)COHCO0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>ccc(OC)c(S@@Ncccc(ccOC)ON=CC)ccBr000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>OCCOC(C=NNC=CN=CNC=O)C&amp;CO00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>ccc(OC)c(S@@Ncccc(ccOC)ON=CC)cc*0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>C=Ncccc(ccC@N)N=C(NCC[N+]CCOCC)N0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -418,7 +418,7 @@
     <t>cccc(ccF)OCC(CC@NC)NC@ccccc(c)NC@CO0000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>C=Ncc(Br)c(Br)c(Br)c(Br)cNCCC[N+]000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>C=Ncc(*)c(*)c(*)c(*)cNCCC[N+]0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>C(CC[N+])CC([C-]@=O)[N+]000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -430,7 +430,7 @@
     <t>/N=C/NC@ccccccC000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>OCCOHCOHCOHCOHC[N+]C([C-]@=O)CCC@N00000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>OCC&amp;C&amp;C&amp;C&amp;C[N+]C([C-]@=O)CCC@N000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ONC@C(cccc(-ccc(F)c(F)c(F)c)cc)NC@C(C)(C)C000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -454,7 +454,7 @@
     <t>cccc(/C=N/C(NC@OCcccccc)C=NN=C(C)Ncccccc)cc00000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>cccc(ccScncc(c(NCCC([N+])C)n)C(Cl)=C(CC)N)C@NC00000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>cccc(ccScncc(c(NCCC([N+])C)n)C(l)=C(CC)N)C@NC000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>cc(C)nc(N)ncC00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -472,13 +472,13 @@
     <t>C=C(C@C)ccccc(C)cN000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>ccc(C(NC@C(CC)C(Cl)(Cl)CC)C)cccCl000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>ccc(C(NC@C(CC)C(l)(l)CC)C)cccl000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ccc(C@N)cc(c)CN(CCCOC)C=O00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>ccc(OC)c(S@@Ncccccc(cccc)C@NCC)ccBr0000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>ccc(OC)c(S@@Ncccccc(cccc)C@NCC)cc*00000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ccc(N@=O)cccC@Occcccc(cccc)C@O000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -487,10 +487,10 @@
     <t>ccc(c(CSCC[N+](C)C)ccN)N=C(N)NC=O000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>cccc(ccCl)/N=C(/N)O00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>ccc(C(NC@C(S@C)C(Cl)(Cl)CC)C)cccBr00000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>cccc(ccl)/N=C(/N)O000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>ccc(C(NC@C(S@C)C(l)(l)CC)C)ccc*00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ccc(cccC@n[c+](=N)n-)NC(NCC[N+]CCCCC)=N000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -517,7 +517,7 @@
     <t>OC(C@NC([C-]@=O)CC(C)C)C(Ccccc(OCcccccc)cc)[N+]0000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>C=Ncc(Br)c(Br)c(Br)c(Br)cN0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>C=Ncc(*)c(*)c(*)c(*)cN00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>Occcc(S@@N(CC)CC)ccNC@C=C(CC)C(C@C)=C(C)N0000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -532,10 +532,10 @@
     <t>NC=NN=C(S@@N)S0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>cccc(C(C)C)c(-cccc(C[N+])ccCl)c00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>cccc(-cccc(C[N+]CCCNC@CC@Nccccc([C-]@=O)c)ccCl)cc00000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>cccc(C(C)C)c(-cccc(C[N+])ccl)c000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>cccc(-cccc(C[N+]CCCNC@CC@Nccccc([C-]@=O)c)ccl)cc000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>cnc(-cccc(NCCN(C@C[N+]CCC(SC)(C@Nccccc(c)C(cccc(F)cc)=NN)C)CC)cc)ncc0000000000000000000000000000000000000000000000000000</t>
@@ -559,7 +559,7 @@
     <t>ccc(OC)c([C-]@=O)c(C[N+](C)Ccccc(ccC@NCcccc(OC)cc)OCO)c00000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>Occc([C-]@=O)nccc(Cl)cc(Cl)c00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>Occc([C-]@=O)nccc(l)cc(l)c0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>C(CC([C-]@=O)[N+])C[N+]0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -586,7 +586,7 @@
     <t>cccc(COC@NCP@@NC(C@NCC[N+])CC(C)C)cc000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>OCCOC(C=NNccncncN)COHCO0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>OCCOC(C=NNccncncN)C&amp;CO00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ccc(ccc/N=C(/N)NC=O)NC(NCcccccccccc)=N0000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -595,13 +595,13 @@
     <t>ccc(c(N)ccN)C@NNC=O00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>cnc(SCC@cccc(S@@N)c(Cl)c)ncc00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>cnc(SCC@cccc(S@@N)c(l)c)ncc000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ccc(S@@NCCCC[C-]@=O)cccC000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>NC(N(C)C)=Ncc(Br)c(Br)c(Br)c(Br)c000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>NC(N(C)C)=Ncc(*)c(*)c(*)c(*)c0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ccc(C@N)cc(c)CN(CCC[N+]CC)C=O0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -616,7 +616,7 @@
     <t>OCC(NC=C(/N=C\)C@n[c+](=N)n)OC(COP@@OP@@=O)CO000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>ccc(C#Ccccc(F)ccF)cc(C@N(C@NC([C-]@=O)CSCcccc(Br)cc)CCC)c000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>ccc(C#Ccccc(F)ccF)cc(C@N(C@NC([C-]@=O)CSCcccc(*)cc)CCC)c0000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>C=NC(CC([C-]@=O)[N+])=CN000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -646,13 +646,13 @@
     <t>cccc(NCccc(-cccc(C[N+]CCCCC)cc)cccN(C@C)C(C)C)cc000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>C=NC@cccc(CC(C@ccccc(Cl)c)C[N+]C)ccN000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>OCCNC(=NC=C)COHCOHCO0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>/C=N/N(C)cnc(Cl)nc(NC)c0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>C=NC@cccc(CC(C@ccccc(l)c)C[N+]C)ccN0000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>OCCNC(=NC=C)C&amp;C&amp;CO000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>/C=N/N(C)cnc(l)nc(NC)c00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>cnc(Ncccc(OCC[N+]CCCC)cc)nc(Nccccc(S@@NC(C)(C)C)c)cC00000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -676,7 +676,7 @@
     <t>cnc(N)c(C@Nccnccc)nc-cccc(S@@NCC[N+](C)C)cc00000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>ccc(OCC[N+]CCN(C=NNC(N)=N)CC)cccBr00000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>ccc(OCC[N+]CCN(C=NNC(N)=N)CC)ccc*000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>cccc(C(cccccc)CCNcc(C#N)nncccccc)cc0000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -688,7 +688,7 @@
     <t>OC(C@NC([C-]@=O)CC(C)C)C(Ccccccc)[N+]00000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>N(cnc(CCC)nc(Cl)cC)CC=C(C)N=C(C)S000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>N(cnc(CCC)nc(l)cC)CC=C(C)N=C(C)S0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>OCC(CSCCC([C-]@=O)[N+])C[N+](CC=CNccncncN)C00000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -697,16 +697,16 @@
     <t>cccc(COC@NCP@@NC(C@N)CC(C)C)cc000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>cccc(C=NN(C)C=NN=C(C)Ncccc(Cl)cc)cc0000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>OCCNC@C@NCCOHCOHCO000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>cccc(C=NN(C)C=NN=C(C)Ncccc(l)cc)cc00000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>OCCNC@C@NCC&amp;C&amp;CO00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ccc(N@=O)ccc/N=N\N000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>cccc(-cccc(C[N+]CCC@NCCC@Nccccc([C-]@=O)c)ccCl)cc00000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>cccc(-cccc(C[N+]CCC@NCCC@Nccccc([C-]@=O)c)ccl)cc000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>/C=C(\C)C@Ncc(NCCC[N+]CCOCCCCCCC)nccc00000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -718,7 +718,7 @@
     <t>ccc(S@@NCCCCC@NCC[C-]@=O)cccC@NC([C-]@=O)CC[C-]@=O0000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>cc(Cl)ccc(cC=C(C)NN=CC)N=C(NCC(C)C[N+]C)NCccc(C)c(F)c(C)c000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>cc(l)ccc(cC=C(C)NN=CC)N=C(NCC(C)C[N+]C)NCccc(C)c(F)c(C)c0000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ccc(C=NN=NN)cc(-ccc(C@C)cccOCC)c0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -751,10 +751,10 @@
     <t>/C=C(\C=Nccc(F)cc(C@N)cN)SC=CCC[N+]C000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>cnccc(c(Nccccc(Cl)c)nccc([C-]@=O)ccc)c0000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>OCCS@@cc(F)c(F)c(S@@N)c(F)cNC(cccccc)COHcccccc00000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>cnccc(c(Nccccc(l)c)nccc([C-]@=O)ccc)c00000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>OCCS@@cc(F)c(F)c(S@@N)c(F)cNC(cccccc)C&amp;cccccc000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>cnccc(C=C(cccc(F)cc)N=C(cccc(S@C)cc)N)c000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -781,10 +781,10 @@
     <t>NC=C(/N=C\CCCC)C@NNC=O00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>ccc(NCCN(=[C+](=N)=N)CC)cccCl0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>C=Nccc(CC(C@C=CC=C(Br)S)C[N+]C)cccC@N00000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>ccc(NCCN(=[C+](=N)=N)CC)cccl00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>C=Nccc(CC(C@C=CC=C(*)S)C[N+]C)cccC@N000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ccc(C([N+])P@@=O)ccc[C+](=N)=N000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -799,7 +799,7 @@
     <t>C=C(C[N+]CC(C)CC(C)C)N=C(NC@C=C(C)N=C(C)O)S00000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>OCCCCSCCCOHC[N+](CC=CNccncncN)C00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>OCCCCSCCC&amp;C[N+](CC=CNccncncN)C000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>C=NNC(NCCC=CN=CN)=NC(Ncccccc)=NC=CC#N00000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -826,7 +826,7 @@
     <t>cnc(NCCC(Ocnccccccnc)C)ccc(OC)c(OC)ccn0000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>OcccOHcc(c)C@ccc(C)ccOHcC=O000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>Occc&amp;cc(c)C@ccc(C)cc&amp;cC=O00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>C=Ncccc(N@=O)ccN00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -877,22 +877,22 @@
     <t>C=NNC(NCCC)=NC=NC=CCCCCC@Nccccc(c)N0000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>C=NNC(=C)N=C(Cl)C=CNCC=C(C)N=C(C)S00000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>C=NNC(=C)N=C(l)C=CNCC=C(C)N=C(C)S000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>C=NNC(C=CNC(C@N(C)C)=C)=Ccccccc00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>NC(SC)=Ncc(Br)c(Br)c(Br)c(Br)c000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>NC(SC)=Ncc(*)c(*)c(*)c(*)c0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ccc([C-]@=O)c(OC@C)c(C)c000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>ccc(N=NC([C-]@=O)CCCC([C-]@=O)[N+])cccBr00000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>ccc(C[N+])cc(Cl)cOCCC000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>ccc(N=NC([C-]@=O)CCCC([C-]@=O)[N+])ccc*000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>ccc(C[N+])cc(l)cOCCC0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>Occcc(S@@N(CC)CC)ccNC@C=C(CC)C(C@CO)=C(C)N000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -934,25 +934,25 @@
     <t>cc(OC)ccc(NCC[N+]CC)cc(nccC)NN=CC000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>cccc(C)c(-cccc(C[N+])ccCl)c000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>cccc(C)c(-cccc(C[N+])ccl)c0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ccc(c(CC[N+]CCCCCC)ccNC(NC)=N)-n[c+](=N)nC=O0000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>cccc(CC)c(-cccc(C[N+])ccCl)c00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>ccc(-cccc(C[N+])ccCl)c(C)ccF00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>OCCOCOH(C[N+]C([C-]@=O)CCC@N)COHCO00000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>cccc(CC)c(-cccc(C[N+])ccl)c000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>ccc(-cccc(C[N+])ccl)c(C)ccF000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>OCCOC&amp;(C[N+]C([C-]@=O)CCC@N)C&amp;CO0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>CCC([C-]@=O)([N+])C00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>OCCOC(N/C=N\ccc(Cl)c(Cl)cc)COHCO0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>OCCOC(N/C=N\ccc(l)c(l)cc)C&amp;CO0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>OCC(NC@n[c+](=N)C=C)OC(COP@@=O)CO000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -964,7 +964,7 @@
     <t>C=C(C)N(C)N=CCSCC=NN(C)C(C)=CccccccNC([C-]@=O)=CCCCOcccccccccc0000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>CNC=Ncc(Br)c(Br)c(Br)c(Br)cNCC000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>CNC=Ncc(*)c(*)c(*)c(*)cNCC0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>C=C(/N=N/cccc(S@@Ncncccc)cc)C(N)=C(C)C@CC0000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -976,7 +976,7 @@
     <t>OccccccCNcnccccC00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>Occcc(NC@CCC[N+](CC@NCCN(cccc(C@C)cc)CC)C)ccCl00000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>Occcc(NC@CCC[N+](CC@NCCN(cccc(C@C)cc)CC)C)ccl000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ccccc(c)NC@CC(C)N0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -1000,7 +1000,7 @@
     <t>OCC(NC=Ncc(N)ncnc)OC(COP@@OP@@OP@@OP@@OP@@OCCOC(NC@NC@C(C)=C)CCO)CO00000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>Occcc(F)ccC@NC(cccc(Br)cc)C000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>Occcc(F)ccC@NC(cccc(*)cc)C0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ccc(N@=O)cccN=NN00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -1012,16 +1012,16 @@
     <t>OCCcccc(CCNC=Ncccc(ccN)C@n[c+](=N)n-)cc000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>C=Nccc(CC(C@ccccc(Cl)c)C[N+]C)cccC@N000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>C=Ncncc(Scncc(c(NCCC([N+])C)n)C(Cl)=C(CC)N)ccNC=O00000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>C=Nccc(CC(C@ccccc(l)c)C[N+]C)cccC@N0000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>C=Ncncc(Scncc(c(NCCC([N+])C)n)C(l)=C(CC)N)ccNC=O000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ccc([C-]@=O)cc(N)c000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>cccc(-cccc(C[N+])ccCl)c(OC)c00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>cccc(-cccc(C[N+])ccl)c(OC)c000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>C=NN(cccccc)C=CCN(C@ccccc(c)NC@C@NCC)C0000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -1039,13 +1039,13 @@
     <t>ONC@C(cccc(-ccc(F)c(F)c(F)c)cc)NC@CCCCCCC0000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>ccccc(c)S/C([C-]@=O)=C\CCCOccc(C)c(Cl)c(C)c00000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>ccccc(c)S/C([C-]@=O)=C\CCCOccc(C)c(l)c(C)c000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>/C=N/cc(N)ncncN000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>cnc(Ncccc(C@NCCC[N+](C)CC)c(F)c)nc(Ncccc(Cl)c(NS@@C(C)(C)C)c)cC000000000000000000000000000000000000000000000000000000000</t>
+    <t>cnc(Ncccc(C@NCCC[N+](C)CC)c(F)c)nc(Ncccc(l)c(NS@@C(C)(C)C)c)cC0000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ccc(OCC)cccN=C(S@@N)S000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -1063,13 +1063,13 @@
     <t>C=CC[N+](CccccccC@NC(cccc(OC)cc)cccc(OC)cc)Cccccc(c[C-]@=O)OCO0000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>NC(=S)Ncc(Br)c(Br)c(Br)c(Br)c0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>NC(=S)Ncc(*)c(*)c(*)c(*)c00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ccccc(c)N=C(N)NC=O000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>cnc(Ncccc(NCC[N+](C)CC)cc)nc(Ncccc(Cl)c(NS@@C(C)(C)C)c)cC000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>cnc(Ncccc(NCC[N+](C)CC)cc)nc(Ncccc(l)c(NS@@C(C)(C)C)c)cC0000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>C=CNC(=C)C@Nccc(C[N+]CCCC)ccc0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -1078,7 +1078,7 @@
     <t>/C=N/ccccccN000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>Ccc(Cl)nc(CCC)ncCl000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>Ccc(l)nc(CCC)ncl00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ONC@C(cccc(-ccc(F)c(F)c(F)c)cc)NC@OC(C)(C)C00000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -1087,7 +1087,7 @@
     <t>ccccc(c)C@/N=C(/C)N00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>ONC@C(cccc(Br)cc)NC@C(C)(C)C00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>ONC@C(cccc(*)cc)NC@C(C)(C)C000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>OCCS@@cc(F)c(F)c(S@@N)c(F)cNCccccccCC00000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -1111,7 +1111,7 @@
     <t>cccc(S@@Nccc(C=C(C)ON=CC)cc([C-]@=O)c)cc00000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>cccc(-ccc(Cl)cccN=C(NCC[N+]CC)NCccc(C)c(F)c(C)c)c(Cl)c000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>cccc(-ccc(l)cccN=C(NCC[N+]CC)NCccc(C)c(F)c(C)c)c(l)c00000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>OSccccccN(/C([C-]@=O)=C\CCCOcccccccccc)CCC000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -1123,7 +1123,7 @@
     <t>cnccc(OCcncccccccc)ccccc000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>OCCOC(OCCOHCOHC[N+]C)COHCO0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>OCCOC(OCC&amp;C&amp;C[N+]C)C&amp;CO0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>OCCScc(F)c(F)c(S@@N)c(NCCCCCCCC)cF00000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -1141,10 +1141,10 @@
     <t>ONC@C(cccc(C=CN(C)N=C)cc)NC@OC(C)(C)C00000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>ccc(NC@cccc(NC=C(C)C@CC)c(Cl)c)cccOC000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>ccccccc(CCCOcnc(Cl)c(C)c(NCC=C(C)N=C(C)S)n)ncc00000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>ccc(NC@cccc(NC=C(C)C@CC)c(l)c)cccOC0000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>ccccccc(CCCOcnc(l)c(C)c(NCC=C(C)N=C(C)S)n)ncc000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>OCC(C@NCCCCCC@NC(C@NCCCCCC@NC(C@NC(C@N)CCCN=[C+](=N)=N)CCCN=[C+](=N)=N)CCCC[N+])OC(NC=Ncc(N)ncnc)CO000000000000000000000</t>
@@ -1162,7 +1162,7 @@
     <t>cnccc(NC@CCCC(C(C)[N+])CC)c000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>OCCOC(OCCC[N+]CCO)COHCO0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>OCCOC(OCCC[N+]CCO)C&amp;CO00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>NOCC([N+])C=O00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -1183,10 +1183,10 @@
     <t>ccc(CCScc(F)c(F)c(S@@N)c(NCCCCCCCCCCCC)cF)ccc[C-]@=O00000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>OccccccC@ccOHccc(N@=O)cC=O0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>cnc(Ncccc(NCC[N+](C)CC)c(F)c)nc(Ncccc(Cl)c(NS@@C(C)(C)C)c)cC000000000000000000000000000000000000000000000000000000000000</t>
+    <t>OccccccC@cc&amp;ccc(N@=O)cC=O00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>cnc(Ncccc(NCC[N+](C)CC)c(F)c)nc(Ncccc(l)c(NS@@C(C)(C)C)c)cC0000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>cccc(C@Ncccc(ccNCCCCC)N(C)C@NC)c(OC)c00000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -1198,7 +1198,7 @@
     <t>ONC@C(CC(C)C)[N+]0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>Ncnc(CCC)nc(Cl)cC0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>Ncnc(CCC)nc(l)cC00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>OCccccc(c)OCCO0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -1207,7 +1207,7 @@
     <t>C=NC@cccc(ccN)NC(NCC[N+]CCCCC)=N0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>OCC@NCCOHCC(OC)([C-]@=O)OCCOHCOHCO00000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>OCC@NCC&amp;CC(OC)([C-]@=O)OCC&amp;C&amp;CO00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>OC[N+](C/C=C(\)NccncncN)CCCCCC000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -1225,7 +1225,7 @@
     <t>OCCCC([C-]@=O)[N+]C([C-]@=O)CCCN=[C+](=N)=N00000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>C=C(C@NC)NC=CBr000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>C=C(C@NC)NC=C*0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>cc(F)ccc(cC@N)C@N(CCC[N+](CCCC(F)(F)CC)CC)C00000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -1234,7 +1234,7 @@
     <t>ccccc(c)-ccc(cccNCOC(C)(Ncccccc-)C(OC)C([N+]C)C)CNC=O0000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>OCCOHCOHCOC(OC)([C-]@=O)CCOHCNC@C000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>OCC&amp;C&amp;COC(OC)([C-]@=O)CC&amp;CNC@C000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>SCC(C@NC[C-]@=O)Ccccccc0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -1246,7 +1246,7 @@
     <t>C=Cccccc([C-]@=O)cO00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>cc(Cl)cc(NCCCCC[N+])ccN(Cccc(C)c(F)c(C)c)C(NCC[N+]CC)=N00000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>cc(l)cc(NCCCCC[N+])ccN(Cccc(C)c(F)c(C)c)C(NCC[N+]CC)=N000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>SCC(NC@C[C-]@=O)Ccccccc0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -1261,10 +1261,10 @@
     <t>OCCOC(NC@NC@C(C)=C)CCO00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>cccc(c(C([N+]C(cccc(Br)cc)C)P(O)(O)=O)c)NC@C@N00000000000000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>Occcccc-cccc(C[N+])ccCl0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>cccc(c(C([N+]C(cccc(*)cc)C)P(O)(O)=O)c)NC@C@N000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>Occcccc-cccc(C[N+])ccl00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>ccc(cccC@n[c+](=N)n-)NC(NC)=N0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -1282,7 +1282,7 @@
     <t>ccc(C@C)cccOCCO000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>/C=C/C(NCCC(C@NCCC[N+]CCN(ccccc(Cl)c)CC)CC)=N\NC=NN=CC000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>/C=C/C(NCCC(C@NCCC[N+]CCN(ccccc(l)c)CC)CC)=N\NC=NN=CC0000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>Occcc(S@@N(CC)CC)ccNC@C=C(C)C(C@C)=C(C)N00000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -1291,7 +1291,7 @@
     <t>cc(-ccccccOCCO)nc(OC)c(Ncccc(C[N+](C)C)cc)c00000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>cccc(-cccc(C[N+])ccCl)c(F)c000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>cccc(-cccc(C[N+])ccl)c(F)c0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>C=CNC(SCccc(N)cccN=C(N)NC=O)=N000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
@@ -1303,13 +1303,13 @@
     <t>ccc(CC(CNC@CCC[N+])CC(C)C)c([C-]@=O)ccOCO0000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>ONC@COHCOHCOH[C-]@=O0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>ONC@C&amp;C&amp;C&amp;[C-]@=O0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>cc(OC)cc(-ccc(C@NCCCC[N+](C)C)cc(c)CN(C@CC)CCO)ccOC000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>C=NC=C(C@NC@NCcccc(Cl)cc)NCC00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>C=NC=C(C@NC@NCcccc(l)cc)NCC000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>SMNPPPPETSNPNKPKRQTNQLQYLLRVVLKTLWKHQFAWPFQQPVDAVKLNLPDYYKIIKTPMDMGTIKKRLENNYYWNAQECIQDFNTMFTNCYIYNKPGDDIVLMAEALEKLFLQKINELPTEE000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
